--- a/src/main/resources/poi/report_balanceGetOut.xlsx
+++ b/src/main/resources/poi/report_balanceGetOut.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WK_report3.0\xinsoft-gyhl\src\main\resources\poi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D970034A-FD41-482D-A581-1FCA6E128A3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BD0A0F-E4BD-43D5-9D67-5CC2F1F9E11A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -185,6 +185,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +503,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -535,13 +541,13 @@
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -561,13 +567,13 @@
       <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="6" t="s">
         <v>15</v>
       </c>
     </row>

--- a/src/main/resources/poi/report_balanceGetOut.xlsx
+++ b/src/main/resources/poi/report_balanceGetOut.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WK_report3.0\xinsoft-gyhl\src\main\resources\poi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BD0A0F-E4BD-43D5-9D67-5CC2F1F9E11A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A03C56-1113-459C-8913-616FCF9AC0AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,7 +91,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;% Page Language="C#" EnableEventValidation = "false" AutoEventWireup="true"</t>
+    <t>&lt;% Page Language="C#" EnableEventValidation = "false" AutoEventWireup="true" CodeFile="ExportGridView.aspx.cs" Inherits="ExportGridView" %&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -183,14 +183,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,7 +503,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -517,13 +517,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -541,13 +541,13 @@
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -567,13 +567,13 @@
       <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>15</v>
       </c>
     </row>

--- a/src/main/resources/poi/report_balanceGetOut.xlsx
+++ b/src/main/resources/poi/report_balanceGetOut.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WK_report3.0\xinsoft-gyhl\src\main\resources\poi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A03C56-1113-459C-8913-616FCF9AC0AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978FE7ED-226D-4461-95F4-52CA537515C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -192,6 +192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -503,7 +504,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -526,13 +527,13 @@
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
